--- a/Mail/ChinaUnion_Agent/Template/ImportCommissio_Template.xlsx
+++ b/Mail/ChinaUnion_Agent/Template/ImportCommissio_Template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="30" windowWidth="14760" windowHeight="7665" activeTab="1"/>
+    <workbookView xWindow="600" yWindow="30" windowWidth="14760" windowHeight="7665"/>
   </bookViews>
   <sheets>
     <sheet name="明细表" sheetId="4" r:id="rId1"/>
@@ -22,229 +22,230 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
+  <si>
+    <t>渠道类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3G专营店</t>
+  </si>
+  <si>
+    <t>总计</t>
+  </si>
+  <si>
+    <t>存费送费-分成佣金</t>
+  </si>
+  <si>
+    <t>存费送费-一次性佣金</t>
+  </si>
+  <si>
+    <t>存费送机-促销奖励（免费打）</t>
+  </si>
+  <si>
+    <t>存费送机-促销奖励（直降）</t>
+  </si>
+  <si>
+    <t>存费送机-分成佣金</t>
+  </si>
+  <si>
+    <t>存费送机-考核佣金</t>
+  </si>
+  <si>
+    <t>存费送机-一次性佣金</t>
+  </si>
+  <si>
+    <t>存费送业务-分成佣金</t>
+  </si>
+  <si>
+    <t>后付费单卡-分成佣金</t>
+  </si>
+  <si>
+    <t>购机送费-分成佣金</t>
+  </si>
+  <si>
+    <t>后付费合约-促销奖励（存费送机）</t>
+  </si>
+  <si>
+    <t>后付费合约-促销奖励（总量达量）</t>
+  </si>
+  <si>
+    <t>后付费合约-达量奖励（平台商）</t>
+  </si>
+  <si>
+    <t>预付费-考核佣金</t>
+  </si>
+  <si>
+    <t>佣金说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理商编号</t>
+  </si>
+  <si>
+    <t>联系人姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人电话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联系人微信账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XXX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理商编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存费送机-促销奖励（存费送机）</t>
+  </si>
+  <si>
+    <t>存费送机-促销奖励（指定终端）</t>
+  </si>
+  <si>
+    <t>存费送业务-一次性佣金</t>
+  </si>
+  <si>
+    <t>购机送费-一次性佣金</t>
+  </si>
+  <si>
+    <t>后付费合约-促销奖励（年度达量）</t>
+  </si>
+  <si>
+    <t>后付费合约-达量奖励（渠道积分）</t>
+  </si>
+  <si>
+    <t>后付费合约-发展质量考核扣罚</t>
+  </si>
+  <si>
+    <t>后付费合约-维系佣金</t>
+  </si>
+  <si>
+    <t>后付费合约-一次性佣金</t>
+  </si>
+  <si>
+    <t>互联网业务-其他</t>
+  </si>
+  <si>
+    <t>集客业务-其他</t>
+  </si>
+  <si>
+    <t>家客业务-分成佣金</t>
+  </si>
+  <si>
+    <t>家客业务-服务佣金</t>
+  </si>
+  <si>
+    <t>家客业务-一次性佣金</t>
+  </si>
+  <si>
+    <t>其他-充值卡佣金</t>
+  </si>
+  <si>
+    <t>其他-充值佣金</t>
+  </si>
+  <si>
+    <t>其他-代理商考核扣罚</t>
+  </si>
+  <si>
+    <t>其他-发展质量考核扣罚</t>
+  </si>
+  <si>
+    <t>其他-服务佣金</t>
+  </si>
+  <si>
+    <t>其他-其他</t>
+  </si>
+  <si>
+    <t>其他-战略渠道房租补贴</t>
+  </si>
+  <si>
+    <t>其他-装修补贴</t>
+  </si>
+  <si>
+    <t>上网卡-写卡佣金</t>
+  </si>
+  <si>
+    <t>预付费-达量奖励（批发渠道季度奖励）</t>
+  </si>
+  <si>
+    <t>预付费-分成佣金</t>
+  </si>
+  <si>
+    <t>预付费-激活佣金</t>
+  </si>
+  <si>
+    <t>预付费-领卡佣金</t>
+  </si>
+  <si>
+    <t>预付费-写卡佣金</t>
+  </si>
+  <si>
+    <t>联系人邮箱</t>
+  </si>
+  <si>
+    <t>渠道类型</t>
+  </si>
+  <si>
+    <t>平台商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特约店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特约店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ABCD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理商编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1197922021@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zapjx@hotmail.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理商P001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代理商P002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>P002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否禁用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>代理商名称</t>
-  </si>
-  <si>
-    <t>渠道类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3G专营店</t>
-  </si>
-  <si>
-    <t>总计</t>
-  </si>
-  <si>
-    <t>存费送费-分成佣金</t>
-  </si>
-  <si>
-    <t>存费送费-一次性佣金</t>
-  </si>
-  <si>
-    <t>存费送机-促销奖励（免费打）</t>
-  </si>
-  <si>
-    <t>存费送机-促销奖励（直降）</t>
-  </si>
-  <si>
-    <t>存费送机-分成佣金</t>
-  </si>
-  <si>
-    <t>存费送机-考核佣金</t>
-  </si>
-  <si>
-    <t>存费送机-一次性佣金</t>
-  </si>
-  <si>
-    <t>存费送业务-分成佣金</t>
-  </si>
-  <si>
-    <t>后付费单卡-分成佣金</t>
-  </si>
-  <si>
-    <t>购机送费-分成佣金</t>
-  </si>
-  <si>
-    <t>后付费合约-促销奖励（存费送机）</t>
-  </si>
-  <si>
-    <t>后付费合约-促销奖励（总量达量）</t>
-  </si>
-  <si>
-    <t>后付费合约-达量奖励（平台商）</t>
-  </si>
-  <si>
-    <t>预付费-考核佣金</t>
-  </si>
-  <si>
-    <t>佣金说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代理商编号</t>
-  </si>
-  <si>
-    <t>联系人姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系人电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系人微信账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XXX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代理商编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>存费送机-促销奖励（存费送机）</t>
-  </si>
-  <si>
-    <t>存费送机-促销奖励（指定终端）</t>
-  </si>
-  <si>
-    <t>存费送业务-一次性佣金</t>
-  </si>
-  <si>
-    <t>购机送费-一次性佣金</t>
-  </si>
-  <si>
-    <t>后付费合约-促销奖励（年度达量）</t>
-  </si>
-  <si>
-    <t>后付费合约-达量奖励（渠道积分）</t>
-  </si>
-  <si>
-    <t>后付费合约-发展质量考核扣罚</t>
-  </si>
-  <si>
-    <t>后付费合约-维系佣金</t>
-  </si>
-  <si>
-    <t>后付费合约-一次性佣金</t>
-  </si>
-  <si>
-    <t>互联网业务-其他</t>
-  </si>
-  <si>
-    <t>集客业务-其他</t>
-  </si>
-  <si>
-    <t>家客业务-分成佣金</t>
-  </si>
-  <si>
-    <t>家客业务-服务佣金</t>
-  </si>
-  <si>
-    <t>家客业务-一次性佣金</t>
-  </si>
-  <si>
-    <t>其他-充值卡佣金</t>
-  </si>
-  <si>
-    <t>其他-充值佣金</t>
-  </si>
-  <si>
-    <t>其他-代理商考核扣罚</t>
-  </si>
-  <si>
-    <t>其他-发展质量考核扣罚</t>
-  </si>
-  <si>
-    <t>其他-服务佣金</t>
-  </si>
-  <si>
-    <t>其他-其他</t>
-  </si>
-  <si>
-    <t>其他-战略渠道房租补贴</t>
-  </si>
-  <si>
-    <t>其他-装修补贴</t>
-  </si>
-  <si>
-    <t>上网卡-写卡佣金</t>
-  </si>
-  <si>
-    <t>预付费-达量奖励（批发渠道季度奖励）</t>
-  </si>
-  <si>
-    <t>预付费-分成佣金</t>
-  </si>
-  <si>
-    <t>预付费-激活佣金</t>
-  </si>
-  <si>
-    <t>预付费-领卡佣金</t>
-  </si>
-  <si>
-    <t>预付费-写卡佣金</t>
-  </si>
-  <si>
-    <t>联系人邮箱</t>
-  </si>
-  <si>
-    <t>渠道类型</t>
-  </si>
-  <si>
-    <t>平台商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特约店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特约店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ABCD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代理商编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1197922021@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zapjx@hotmail.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代理商P001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代理商P002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>P002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否禁用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -744,449 +745,458 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR3"/>
+  <dimension ref="A1:AS3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="14.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="16.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="16.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="26.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="26.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="24.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="26.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="16.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="16.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="29.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="39" max="43" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="5.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="16384" width="9" style="2"/>
+    <col min="1" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="14.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="16.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="16.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="26.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="29.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="40" max="44" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="5.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="46" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:45" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="10" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="G1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="J1" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="K1" s="10" t="s">
+      <c r="N1" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="P1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="R1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="O1" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="10" t="s">
+      <c r="S1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="10" t="s">
+      <c r="T1" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="U1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="R1" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="10" t="s">
+      <c r="V1" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="W1" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="X1" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y1" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z1" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA1" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB1" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC1" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD1" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AE1" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AF1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG1" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AH1" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI1" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ1" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AK1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="AL1" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="AM1" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="AN1" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO1" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="AP1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="U1" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="V1" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="W1" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="X1" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y1" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="Z1" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA1" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="AB1" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC1" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="AD1" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AE1" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF1" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="AG1" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH1" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI1" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ1" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="AK1" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AL1" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AM1" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="AN1" s="10" t="s">
+      <c r="AQ1" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AO1" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="AP1" s="10" t="s">
+      <c r="AR1" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="AQ1" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="AR1" s="10" t="s">
-        <v>3</v>
+      <c r="AS1" s="10" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:44" ht="12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:45" ht="12" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B2" s="10">
+        <v>59</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="10">
         <v>100</v>
       </c>
-      <c r="C2" s="10">
+      <c r="D2" s="10">
         <v>200</v>
       </c>
-      <c r="D2" s="10">
+      <c r="E2" s="10">
         <v>300</v>
       </c>
-      <c r="E2" s="10">
+      <c r="F2" s="10">
         <v>400</v>
       </c>
-      <c r="F2" s="10">
+      <c r="G2" s="10">
         <v>500</v>
       </c>
-      <c r="G2" s="10">
+      <c r="H2" s="10">
         <v>600</v>
       </c>
-      <c r="H2" s="10">
+      <c r="I2" s="10">
         <v>700</v>
       </c>
-      <c r="I2" s="10">
+      <c r="J2" s="10">
         <v>800</v>
       </c>
-      <c r="J2" s="10">
+      <c r="K2" s="10">
         <v>900</v>
       </c>
-      <c r="K2" s="10">
+      <c r="L2" s="10">
         <v>1000</v>
       </c>
-      <c r="L2" s="10">
+      <c r="M2" s="10">
         <v>1100</v>
       </c>
-      <c r="M2" s="10">
+      <c r="N2" s="10">
         <v>1200</v>
       </c>
-      <c r="N2" s="10">
+      <c r="O2" s="10">
         <v>1300</v>
       </c>
-      <c r="O2" s="10">
+      <c r="P2" s="10">
         <v>1400</v>
       </c>
-      <c r="P2" s="10">
+      <c r="Q2" s="10">
         <v>1500</v>
       </c>
-      <c r="Q2" s="10">
+      <c r="R2" s="10">
         <v>1600</v>
       </c>
-      <c r="R2" s="10">
+      <c r="S2" s="10">
         <v>1700</v>
       </c>
-      <c r="S2" s="10">
+      <c r="T2" s="10">
         <v>1800</v>
       </c>
-      <c r="T2" s="10">
+      <c r="U2" s="10">
         <v>1900</v>
       </c>
-      <c r="U2" s="10">
+      <c r="V2" s="10">
         <v>2000</v>
       </c>
-      <c r="V2" s="10">
+      <c r="W2" s="10">
         <v>2100</v>
       </c>
-      <c r="W2" s="10">
+      <c r="X2" s="10">
         <v>2200</v>
       </c>
-      <c r="X2" s="10">
+      <c r="Y2" s="10">
         <v>2300</v>
       </c>
-      <c r="Y2" s="10">
+      <c r="Z2" s="10">
         <v>2400</v>
       </c>
-      <c r="Z2" s="10">
+      <c r="AA2" s="10">
         <v>2500</v>
       </c>
-      <c r="AA2" s="10">
+      <c r="AB2" s="10">
         <v>2600</v>
       </c>
-      <c r="AB2" s="10">
+      <c r="AC2" s="10">
         <v>2700</v>
       </c>
-      <c r="AC2" s="10">
+      <c r="AD2" s="10">
         <v>2800</v>
       </c>
-      <c r="AD2" s="10">
+      <c r="AE2" s="10">
         <v>2900</v>
       </c>
-      <c r="AE2" s="10">
+      <c r="AF2" s="10">
         <v>3000</v>
       </c>
-      <c r="AF2" s="10">
+      <c r="AG2" s="10">
         <v>3100</v>
       </c>
-      <c r="AG2" s="10">
+      <c r="AH2" s="10">
         <v>3200</v>
       </c>
-      <c r="AH2" s="10">
+      <c r="AI2" s="10">
         <v>3300</v>
       </c>
-      <c r="AI2" s="10">
+      <c r="AJ2" s="10">
         <v>3400</v>
       </c>
-      <c r="AJ2" s="10">
+      <c r="AK2" s="10">
         <v>3500</v>
       </c>
-      <c r="AK2" s="10">
+      <c r="AL2" s="10">
         <v>3600</v>
       </c>
-      <c r="AL2" s="10">
+      <c r="AM2" s="10">
         <v>3700</v>
       </c>
-      <c r="AM2" s="10">
+      <c r="AN2" s="10">
         <v>3800</v>
       </c>
-      <c r="AN2" s="10">
+      <c r="AO2" s="10">
         <v>3900</v>
       </c>
-      <c r="AO2" s="10">
+      <c r="AP2" s="10">
         <v>4000</v>
       </c>
-      <c r="AP2" s="10">
+      <c r="AQ2" s="10">
         <v>4100</v>
       </c>
-      <c r="AQ2" s="10">
+      <c r="AR2" s="10">
         <v>4200</v>
       </c>
-      <c r="AR2" s="10">
-        <f t="shared" ref="AR2:AR3" si="0">SUM(B2:AQ2)</f>
+      <c r="AS2" s="10">
+        <f t="shared" ref="AS2:AS3" si="0">SUM(C2:AR2)</f>
         <v>90300</v>
       </c>
     </row>
-    <row r="3" spans="1:44" ht="12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:45" ht="12" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="10">
+        <v>65</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="10">
         <v>100</v>
       </c>
-      <c r="C3" s="10">
+      <c r="D3" s="10">
         <v>200</v>
       </c>
-      <c r="D3" s="10"/>
       <c r="E3" s="10"/>
-      <c r="F3" s="10">
+      <c r="F3" s="10"/>
+      <c r="G3" s="10">
         <v>500</v>
       </c>
-      <c r="G3" s="10">
+      <c r="H3" s="10">
         <v>600</v>
       </c>
-      <c r="H3" s="10">
+      <c r="I3" s="10">
         <v>700</v>
       </c>
-      <c r="I3" s="10">
+      <c r="J3" s="10">
         <v>800</v>
       </c>
-      <c r="J3" s="10">
+      <c r="K3" s="10">
         <v>900</v>
       </c>
-      <c r="K3" s="10">
+      <c r="L3" s="10">
         <v>1000</v>
       </c>
-      <c r="L3" s="10">
+      <c r="M3" s="10">
         <v>1100</v>
       </c>
-      <c r="M3" s="10">
+      <c r="N3" s="10">
         <v>1200</v>
       </c>
-      <c r="N3" s="10">
+      <c r="O3" s="10">
         <v>1300</v>
       </c>
-      <c r="O3" s="10">
+      <c r="P3" s="10">
         <v>1400</v>
       </c>
-      <c r="P3" s="10">
+      <c r="Q3" s="10">
         <v>1500</v>
       </c>
-      <c r="Q3" s="10">
+      <c r="R3" s="10">
         <v>1600</v>
       </c>
-      <c r="R3" s="10">
+      <c r="S3" s="10">
         <v>1700</v>
       </c>
-      <c r="S3" s="10">
+      <c r="T3" s="10">
         <v>1800</v>
       </c>
-      <c r="T3" s="10">
+      <c r="U3" s="10">
         <v>1900</v>
       </c>
-      <c r="U3" s="10">
+      <c r="V3" s="10">
         <v>2000</v>
       </c>
-      <c r="V3" s="10">
+      <c r="W3" s="10">
         <v>2100</v>
       </c>
-      <c r="W3" s="10">
+      <c r="X3" s="10">
         <v>2200</v>
       </c>
-      <c r="X3" s="10">
+      <c r="Y3" s="10">
         <v>2300</v>
       </c>
-      <c r="Y3" s="10">
+      <c r="Z3" s="10">
         <v>2400</v>
       </c>
-      <c r="Z3" s="10">
+      <c r="AA3" s="10">
         <v>2500</v>
       </c>
-      <c r="AA3" s="10">
+      <c r="AB3" s="10">
         <v>2600</v>
       </c>
-      <c r="AB3" s="10">
+      <c r="AC3" s="10">
         <v>2700</v>
       </c>
-      <c r="AC3" s="10">
+      <c r="AD3" s="10">
         <v>2800</v>
       </c>
-      <c r="AD3" s="10">
+      <c r="AE3" s="10">
         <v>2900</v>
       </c>
-      <c r="AE3" s="10">
+      <c r="AF3" s="10">
         <v>3000</v>
       </c>
-      <c r="AF3" s="10">
+      <c r="AG3" s="10">
         <v>3100</v>
       </c>
-      <c r="AG3" s="10">
+      <c r="AH3" s="10">
         <v>3200</v>
       </c>
-      <c r="AH3" s="10">
+      <c r="AI3" s="10">
         <v>3300</v>
       </c>
-      <c r="AI3" s="10">
+      <c r="AJ3" s="10">
         <v>3400</v>
       </c>
-      <c r="AJ3" s="10">
+      <c r="AK3" s="10">
         <v>3500</v>
       </c>
-      <c r="AK3" s="10">
+      <c r="AL3" s="10">
         <v>3600</v>
       </c>
-      <c r="AL3" s="10">
+      <c r="AM3" s="10">
         <v>3700</v>
       </c>
-      <c r="AM3" s="10">
+      <c r="AN3" s="10">
         <v>3800</v>
       </c>
-      <c r="AN3" s="10">
+      <c r="AO3" s="10">
         <v>3900</v>
       </c>
-      <c r="AO3" s="10">
+      <c r="AP3" s="10">
         <v>4000</v>
       </c>
-      <c r="AP3" s="10">
+      <c r="AQ3" s="10">
         <v>4100</v>
       </c>
-      <c r="AQ3" s="10">
+      <c r="AR3" s="10">
         <v>4200</v>
       </c>
-      <c r="AR3" s="10">
+      <c r="AS3" s="10">
         <f t="shared" si="0"/>
         <v>89600</v>
       </c>
@@ -1202,8 +1212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1218,66 +1228,66 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>22</v>
-      </c>
       <c r="G1" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3" s="8"/>
     </row>
@@ -1313,42 +1323,42 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1374,23 +1384,23 @@
   <sheetData>
     <row r="1" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" s="17">
         <v>1234</v>
@@ -1398,7 +1408,7 @@
     </row>
     <row r="4" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B4" s="16">
         <v>5678</v>

--- a/Mail/ChinaUnion_Agent/Template/ImportCommissio_Template.xlsx
+++ b/Mail/ChinaUnion_Agent/Template/ImportCommissio_Template.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="69">
   <si>
     <t>渠道类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -246,6 +246,10 @@
   </si>
   <si>
     <t>代理商名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开票金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -745,10 +749,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS3"/>
+  <dimension ref="A1:AT3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="AT1" sqref="AT1:AT3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -792,7 +796,7 @@
     <col min="46" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:46" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>23</v>
       </c>
@@ -928,8 +932,11 @@
       <c r="AS1" s="10" t="s">
         <v>2</v>
       </c>
+      <c r="AT1" s="4" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="2" spans="1:45" ht="12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:46" ht="12" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>59</v>
       </c>
@@ -1066,8 +1073,11 @@
         <f t="shared" ref="AS2:AS3" si="0">SUM(C2:AR2)</f>
         <v>90300</v>
       </c>
+      <c r="AT2" s="2">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="3" spans="1:45" ht="12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:46" ht="12" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
         <v>65</v>
       </c>
@@ -1199,6 +1209,9 @@
       <c r="AS3" s="10">
         <f t="shared" si="0"/>
         <v>89600</v>
+      </c>
+      <c r="AT3" s="2">
+        <v>19923</v>
       </c>
     </row>
   </sheetData>

--- a/Mail/ChinaUnion_Agent/Template/ImportCommissio_Template.xlsx
+++ b/Mail/ChinaUnion_Agent/Template/ImportCommissio_Template.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="70">
   <si>
     <t>渠道类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -250,6 +250,10 @@
   </si>
   <si>
     <t>开票金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过往开票金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -749,10 +753,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AT3"/>
+  <dimension ref="A1:AU3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AT1" sqref="AT1:AT3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -796,7 +800,7 @@
     <col min="46" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:47" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A1" s="10" t="s">
         <v>23</v>
       </c>
@@ -935,8 +939,11 @@
       <c r="AT1" s="4" t="s">
         <v>68</v>
       </c>
+      <c r="AU1" s="4" t="s">
+        <v>69</v>
+      </c>
     </row>
-    <row r="2" spans="1:46" ht="12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:47" ht="12" x14ac:dyDescent="0.15">
       <c r="A2" s="10" t="s">
         <v>59</v>
       </c>
@@ -1076,8 +1083,11 @@
       <c r="AT2" s="2">
         <v>10000</v>
       </c>
+      <c r="AU2" s="2">
+        <v>9999</v>
+      </c>
     </row>
-    <row r="3" spans="1:46" ht="12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:47" ht="12" x14ac:dyDescent="0.15">
       <c r="A3" s="10" t="s">
         <v>65</v>
       </c>
@@ -1212,6 +1222,9 @@
       </c>
       <c r="AT3" s="2">
         <v>19923</v>
+      </c>
+      <c r="AU3" s="2">
+        <v>11111</v>
       </c>
     </row>
   </sheetData>

--- a/Mail/ChinaUnion_Agent/Template/ImportCommissio_Template.xlsx
+++ b/Mail/ChinaUnion_Agent/Template/ImportCommissio_Template.xlsx
@@ -13,23 +13,13 @@
   </bookViews>
   <sheets>
     <sheet name="明细表" sheetId="4" r:id="rId1"/>
-    <sheet name="代理商相关信息" sheetId="5" r:id="rId2"/>
-    <sheet name="代理商渠道类型" sheetId="2" r:id="rId3"/>
-    <sheet name="说明格式" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="70">
-  <si>
-    <t>渠道类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3G专营店</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>总计</t>
   </si>
@@ -74,29 +64,6 @@
   </si>
   <si>
     <t>预付费-考核佣金</t>
-  </si>
-  <si>
-    <t>佣金说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代理商编号</t>
-  </si>
-  <si>
-    <t>联系人姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系人电话</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系人微信账号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>XXX</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>代理商编号</t>
@@ -187,48 +154,10 @@
     <t>预付费-写卡佣金</t>
   </si>
   <si>
-    <t>联系人邮箱</t>
-  </si>
-  <si>
-    <t>渠道类型</t>
-  </si>
-  <si>
-    <t>平台商</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特约店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特约店</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ABCD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代理商编号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>P001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>P002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1197922021@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zapjx@hotmail.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>代理商P001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -238,10 +167,6 @@
   </si>
   <si>
     <t>P002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否禁用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -264,7 +189,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,14 +214,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -304,51 +221,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -371,33 +253,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
@@ -412,45 +275,11 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -761,469 +590,469 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="14.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="16.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="16.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="26.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="26.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="26.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="16.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="16.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="29.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="40" max="44" width="13" style="2" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="5.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="46" max="16384" width="9" style="2"/>
+    <col min="1" max="2" width="9" style="1"/>
+    <col min="3" max="3" width="14.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="26.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="26.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="26.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="16.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18" style="1" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="29.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="44" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="5.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:47" s="3" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="A1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="T1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="U1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="10" t="s">
+      <c r="X1" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="10" t="s">
+      <c r="Y1" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="10" t="s">
+      <c r="Z1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="10" t="s">
+      <c r="AA1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="P1" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="R1" s="10" t="s">
+      <c r="AB1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="S1" s="10" t="s">
+      <c r="AC1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE1" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF1" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AI1" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK1" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL1" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM1" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN1" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="AO1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="AP1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="U1" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="V1" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="W1" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="X1" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y1" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z1" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA1" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="AB1" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AC1" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD1" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE1" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="AF1" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="AG1" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="AH1" s="10" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="AI1" s="10" t="s">
+      <c r="AR1" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="AJ1" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="AK1" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL1" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="AM1" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="AN1" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="AO1" s="10" t="s">
+      <c r="AS1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="AT1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="AP1" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="AQ1" s="10" t="s">
+      <c r="AU1" s="3" t="s">
         <v>50</v>
-      </c>
-      <c r="AR1" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="AS1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="AT1" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="AU1" s="4" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:47" ht="12" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="10">
+      <c r="A2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="5">
         <v>100</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="5">
         <v>200</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="5">
         <v>300</v>
       </c>
-      <c r="F2" s="10">
+      <c r="F2" s="5">
         <v>400</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="5">
         <v>500</v>
       </c>
-      <c r="H2" s="10">
+      <c r="H2" s="5">
         <v>600</v>
       </c>
-      <c r="I2" s="10">
+      <c r="I2" s="5">
         <v>700</v>
       </c>
-      <c r="J2" s="10">
+      <c r="J2" s="5">
         <v>800</v>
       </c>
-      <c r="K2" s="10">
+      <c r="K2" s="5">
         <v>900</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="5">
         <v>1000</v>
       </c>
-      <c r="M2" s="10">
+      <c r="M2" s="5">
         <v>1100</v>
       </c>
-      <c r="N2" s="10">
+      <c r="N2" s="5">
         <v>1200</v>
       </c>
-      <c r="O2" s="10">
+      <c r="O2" s="5">
         <v>1300</v>
       </c>
-      <c r="P2" s="10">
+      <c r="P2" s="5">
         <v>1400</v>
       </c>
-      <c r="Q2" s="10">
+      <c r="Q2" s="5">
         <v>1500</v>
       </c>
-      <c r="R2" s="10">
+      <c r="R2" s="5">
         <v>1600</v>
       </c>
-      <c r="S2" s="10">
+      <c r="S2" s="5">
         <v>1700</v>
       </c>
-      <c r="T2" s="10">
+      <c r="T2" s="5">
         <v>1800</v>
       </c>
-      <c r="U2" s="10">
+      <c r="U2" s="5">
         <v>1900</v>
       </c>
-      <c r="V2" s="10">
+      <c r="V2" s="5">
         <v>2000</v>
       </c>
-      <c r="W2" s="10">
+      <c r="W2" s="5">
         <v>2100</v>
       </c>
-      <c r="X2" s="10">
+      <c r="X2" s="5">
         <v>2200</v>
       </c>
-      <c r="Y2" s="10">
+      <c r="Y2" s="5">
         <v>2300</v>
       </c>
-      <c r="Z2" s="10">
+      <c r="Z2" s="5">
         <v>2400</v>
       </c>
-      <c r="AA2" s="10">
+      <c r="AA2" s="5">
         <v>2500</v>
       </c>
-      <c r="AB2" s="10">
+      <c r="AB2" s="5">
         <v>2600</v>
       </c>
-      <c r="AC2" s="10">
+      <c r="AC2" s="5">
         <v>2700</v>
       </c>
-      <c r="AD2" s="10">
+      <c r="AD2" s="5">
         <v>2800</v>
       </c>
-      <c r="AE2" s="10">
+      <c r="AE2" s="5">
         <v>2900</v>
       </c>
-      <c r="AF2" s="10">
+      <c r="AF2" s="5">
         <v>3000</v>
       </c>
-      <c r="AG2" s="10">
+      <c r="AG2" s="5">
         <v>3100</v>
       </c>
-      <c r="AH2" s="10">
+      <c r="AH2" s="5">
         <v>3200</v>
       </c>
-      <c r="AI2" s="10">
+      <c r="AI2" s="5">
         <v>3300</v>
       </c>
-      <c r="AJ2" s="10">
+      <c r="AJ2" s="5">
         <v>3400</v>
       </c>
-      <c r="AK2" s="10">
+      <c r="AK2" s="5">
         <v>3500</v>
       </c>
-      <c r="AL2" s="10">
+      <c r="AL2" s="5">
         <v>3600</v>
       </c>
-      <c r="AM2" s="10">
+      <c r="AM2" s="5">
         <v>3700</v>
       </c>
-      <c r="AN2" s="10">
+      <c r="AN2" s="5">
         <v>3800</v>
       </c>
-      <c r="AO2" s="10">
+      <c r="AO2" s="5">
         <v>3900</v>
       </c>
-      <c r="AP2" s="10">
+      <c r="AP2" s="5">
         <v>4000</v>
       </c>
-      <c r="AQ2" s="10">
+      <c r="AQ2" s="5">
         <v>4100</v>
       </c>
-      <c r="AR2" s="10">
+      <c r="AR2" s="5">
         <v>4200</v>
       </c>
-      <c r="AS2" s="10">
+      <c r="AS2" s="5">
         <f t="shared" ref="AS2:AS3" si="0">SUM(C2:AR2)</f>
         <v>90300</v>
       </c>
-      <c r="AT2" s="2">
+      <c r="AT2" s="1">
         <v>10000</v>
       </c>
-      <c r="AU2" s="2">
+      <c r="AU2" s="1">
         <v>9999</v>
       </c>
     </row>
     <row r="3" spans="1:47" ht="12" x14ac:dyDescent="0.15">
-      <c r="A3" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="10">
+      <c r="A3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="5">
         <v>100</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="5">
         <v>200</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5">
         <v>500</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="5">
         <v>600</v>
       </c>
-      <c r="I3" s="10">
+      <c r="I3" s="5">
         <v>700</v>
       </c>
-      <c r="J3" s="10">
+      <c r="J3" s="5">
         <v>800</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="5">
         <v>900</v>
       </c>
-      <c r="L3" s="10">
+      <c r="L3" s="5">
         <v>1000</v>
       </c>
-      <c r="M3" s="10">
+      <c r="M3" s="5">
         <v>1100</v>
       </c>
-      <c r="N3" s="10">
+      <c r="N3" s="5">
         <v>1200</v>
       </c>
-      <c r="O3" s="10">
+      <c r="O3" s="5">
         <v>1300</v>
       </c>
-      <c r="P3" s="10">
+      <c r="P3" s="5">
         <v>1400</v>
       </c>
-      <c r="Q3" s="10">
+      <c r="Q3" s="5">
         <v>1500</v>
       </c>
-      <c r="R3" s="10">
+      <c r="R3" s="5">
         <v>1600</v>
       </c>
-      <c r="S3" s="10">
+      <c r="S3" s="5">
         <v>1700</v>
       </c>
-      <c r="T3" s="10">
+      <c r="T3" s="5">
         <v>1800</v>
       </c>
-      <c r="U3" s="10">
+      <c r="U3" s="5">
         <v>1900</v>
       </c>
-      <c r="V3" s="10">
+      <c r="V3" s="5">
         <v>2000</v>
       </c>
-      <c r="W3" s="10">
+      <c r="W3" s="5">
         <v>2100</v>
       </c>
-      <c r="X3" s="10">
+      <c r="X3" s="5">
         <v>2200</v>
       </c>
-      <c r="Y3" s="10">
+      <c r="Y3" s="5">
         <v>2300</v>
       </c>
-      <c r="Z3" s="10">
+      <c r="Z3" s="5">
         <v>2400</v>
       </c>
-      <c r="AA3" s="10">
+      <c r="AA3" s="5">
         <v>2500</v>
       </c>
-      <c r="AB3" s="10">
+      <c r="AB3" s="5">
         <v>2600</v>
       </c>
-      <c r="AC3" s="10">
+      <c r="AC3" s="5">
         <v>2700</v>
       </c>
-      <c r="AD3" s="10">
+      <c r="AD3" s="5">
         <v>2800</v>
       </c>
-      <c r="AE3" s="10">
+      <c r="AE3" s="5">
         <v>2900</v>
       </c>
-      <c r="AF3" s="10">
+      <c r="AF3" s="5">
         <v>3000</v>
       </c>
-      <c r="AG3" s="10">
+      <c r="AG3" s="5">
         <v>3100</v>
       </c>
-      <c r="AH3" s="10">
+      <c r="AH3" s="5">
         <v>3200</v>
       </c>
-      <c r="AI3" s="10">
+      <c r="AI3" s="5">
         <v>3300</v>
       </c>
-      <c r="AJ3" s="10">
+      <c r="AJ3" s="5">
         <v>3400</v>
       </c>
-      <c r="AK3" s="10">
+      <c r="AK3" s="5">
         <v>3500</v>
       </c>
-      <c r="AL3" s="10">
+      <c r="AL3" s="5">
         <v>3600</v>
       </c>
-      <c r="AM3" s="10">
+      <c r="AM3" s="5">
         <v>3700</v>
       </c>
-      <c r="AN3" s="10">
+      <c r="AN3" s="5">
         <v>3800</v>
       </c>
-      <c r="AO3" s="10">
+      <c r="AO3" s="5">
         <v>3900</v>
       </c>
-      <c r="AP3" s="10">
+      <c r="AP3" s="5">
         <v>4000</v>
       </c>
-      <c r="AQ3" s="10">
+      <c r="AQ3" s="5">
         <v>4100</v>
       </c>
-      <c r="AR3" s="10">
+      <c r="AR3" s="5">
         <v>4200</v>
       </c>
-      <c r="AS3" s="10">
+      <c r="AS3" s="5">
         <f t="shared" si="0"/>
         <v>89600</v>
       </c>
-      <c r="AT3" s="2">
+      <c r="AT3" s="1">
         <v>19923</v>
       </c>
-      <c r="AU3" s="2">
+      <c r="AU3" s="1">
         <v>11111</v>
       </c>
     </row>
@@ -1232,216 +1061,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B2:B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="11" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="45" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="8"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G3">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1"/>
-    <hyperlink ref="C3" r:id="rId2"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="13.25" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.875" style="1" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A2" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A3" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A4" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A5" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="19.375" style="7" customWidth="1"/>
-    <col min="2" max="2" width="51.875" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="17">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="16">
-        <v>5678</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>